--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="189">
   <si>
     <t>a.</t>
   </si>
@@ -190,6 +190,9 @@
     <t>Chess</t>
   </si>
   <si>
+    <t>Native</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>Badminton</t>
   </si>
   <si>
+    <t>Invite</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>Baseball</t>
   </si>
   <si>
+    <t>Greet</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t>Tennis</t>
   </si>
   <si>
+    <t>Donate</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>Cricket</t>
   </si>
   <si>
+    <t>Pray</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -250,6 +265,9 @@
     <t>Hockey</t>
   </si>
   <si>
+    <t>Attire</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -262,6 +280,9 @@
     <t>Golf</t>
   </si>
   <si>
+    <t>Gift</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -274,6 +295,9 @@
     <t>Football</t>
   </si>
   <si>
+    <t>Ritual</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -286,6 +310,9 @@
     <t>Squash</t>
   </si>
   <si>
+    <t>Dress</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -298,6 +325,9 @@
     <t>Basketball</t>
   </si>
   <si>
+    <t>Kid</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -310,6 +340,9 @@
     <t>Rugby</t>
   </si>
   <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -322,6 +355,9 @@
     <t>Wrestle</t>
   </si>
   <si>
+    <t>Seed</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -334,6 +370,9 @@
     <t>Racing</t>
   </si>
   <si>
+    <t>Express</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -346,6 +385,9 @@
     <t>Archery</t>
   </si>
   <si>
+    <t>Supreme</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -358,6 +400,9 @@
     <t>Billiard</t>
   </si>
   <si>
+    <t>Match</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -370,6 +415,9 @@
     <t>Discus</t>
   </si>
   <si>
+    <t>Practise</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -382,6 +430,9 @@
     <t>Aerobic</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -394,6 +445,9 @@
     <t>Soccer</t>
   </si>
   <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -406,6 +460,9 @@
     <t>Skiing</t>
   </si>
   <si>
+    <t>Relative</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -418,6 +475,9 @@
     <t>Weightlifting</t>
   </si>
   <si>
+    <t>Tray</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -430,6 +490,9 @@
     <t>Motocross</t>
   </si>
   <si>
+    <t>Decoration</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -445,6 +508,9 @@
     <t>Polo</t>
   </si>
   <si>
+    <t>Cookery</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -457,6 +523,9 @@
     <t>Volleyball</t>
   </si>
   <si>
+    <t>Cutlery</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -469,6 +538,9 @@
     <t>Marathon</t>
   </si>
   <si>
+    <t>Surplus</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -481,6 +553,9 @@
     <t>Athletic</t>
   </si>
   <si>
+    <t>Due</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -491,6 +566,9 @@
   </si>
   <si>
     <t>Gamble</t>
+  </si>
+  <si>
+    <t>Dope</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1089,7 +1167,9 @@
       <c r="F4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1131,7 +1211,9 @@
       <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1159,21 +1241,23 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1201,21 +1285,23 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1243,21 +1329,23 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1285,21 +1373,23 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1327,21 +1417,23 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1369,21 +1461,23 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1411,21 +1505,23 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1453,21 +1549,23 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1495,21 +1593,23 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1537,21 +1637,23 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1579,21 +1681,23 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1621,21 +1725,23 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1663,21 +1769,23 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1705,21 +1813,23 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1747,21 +1857,23 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1789,21 +1901,23 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1831,21 +1945,23 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1873,21 +1989,23 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1915,21 +2033,23 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1957,21 +2077,23 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1999,21 +2121,23 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2041,21 +2165,23 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2083,21 +2209,23 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2125,21 +2253,23 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -2167,21 +2297,23 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2209,21 +2341,23 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="16"/>
+        <v>188</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="215">
   <si>
     <t>a.</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Native</t>
   </si>
   <si>
+    <t>Feel</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>Invite</t>
   </si>
   <si>
+    <t>Carry</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>Greet</t>
   </si>
   <si>
+    <t>Plain</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>Donate</t>
   </si>
   <si>
+    <t>Expect</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
     <t>Pray</t>
   </si>
   <si>
+    <t>Minor</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
     <t>Attire</t>
   </si>
   <si>
+    <t>Major</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
     <t>Gift</t>
   </si>
   <si>
+    <t>Once</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
     <t>Ritual</t>
   </si>
   <si>
+    <t>Twice</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>Dress</t>
   </si>
   <si>
+    <t>Thrice</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
     <t>Kid</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
     <t>Jewellery</t>
   </si>
   <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -358,6 +391,9 @@
     <t>Seed</t>
   </si>
   <si>
+    <t>Side</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -373,6 +409,9 @@
     <t>Express</t>
   </si>
   <si>
+    <t>Gaze</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -388,6 +427,9 @@
     <t>Supreme</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -403,6 +445,9 @@
     <t>Match</t>
   </si>
   <si>
+    <t>Facility</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -418,6 +463,9 @@
     <t>Practise</t>
   </si>
   <si>
+    <t>Break</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -433,6 +481,9 @@
     <t>Media</t>
   </si>
   <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -448,6 +499,9 @@
     <t>Garland</t>
   </si>
   <si>
+    <t>Pace</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -463,6 +517,9 @@
     <t>Relative</t>
   </si>
   <si>
+    <t>Extract</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -478,6 +535,9 @@
     <t>Tray</t>
   </si>
   <si>
+    <t>Occur</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -493,6 +553,9 @@
     <t>Decoration</t>
   </si>
   <si>
+    <t>Fast</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -511,6 +574,9 @@
     <t>Cookery</t>
   </si>
   <si>
+    <t>Smart</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -526,6 +592,9 @@
     <t>Cutlery</t>
   </si>
   <si>
+    <t>Drop</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -541,6 +610,9 @@
     <t>Surplus</t>
   </si>
   <si>
+    <t>Show</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -556,6 +628,9 @@
     <t>Due</t>
   </si>
   <si>
+    <t>Beauty</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -569,6 +644,9 @@
   </si>
   <si>
     <t>Dope</t>
+  </si>
+  <si>
+    <t>Rest</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -663,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -708,6 +786,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,7 +1251,9 @@
       <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1214,7 +1297,9 @@
       <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1241,24 +1326,26 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1285,24 +1372,26 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1329,24 +1418,26 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1373,24 +1464,26 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1417,24 +1510,26 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1461,24 +1556,26 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1505,24 +1602,26 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1549,24 +1648,26 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1593,24 +1694,26 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1637,24 +1740,26 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1681,24 +1786,26 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1725,24 +1832,26 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1769,24 +1878,26 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1813,24 +1924,26 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1857,24 +1970,26 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1901,24 +2016,26 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1945,24 +2062,26 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1989,24 +2108,26 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2033,24 +2154,26 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2077,24 +2200,26 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2121,24 +2246,26 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2165,24 +2292,26 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2209,24 +2338,26 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2253,24 +2384,26 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2297,24 +2430,26 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2341,50 +2476,52 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="17"/>
+        <v>214</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="18"/>
       <c r="AD31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="3"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="267">
   <si>
     <t>a.</t>
   </si>
@@ -196,6 +196,12 @@
     <t>Feel</t>
   </si>
   <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -214,6 +220,12 @@
     <t>Carry</t>
   </si>
   <si>
+    <t>Pamphlet</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -232,6 +244,12 @@
     <t>Plain</t>
   </si>
   <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -250,6 +268,12 @@
     <t>Expect</t>
   </si>
   <si>
+    <t>Fixture</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -268,6 +292,12 @@
     <t>Minor</t>
   </si>
   <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -286,6 +316,12 @@
     <t>Major</t>
   </si>
   <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -304,6 +340,12 @@
     <t>Once</t>
   </si>
   <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -322,6 +364,12 @@
     <t>Twice</t>
   </si>
   <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -340,6 +388,12 @@
     <t>Thrice</t>
   </si>
   <si>
+    <t>Slam</t>
+  </si>
+  <si>
+    <t>Helix</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -358,6 +412,12 @@
     <t>True</t>
   </si>
   <si>
+    <t>Bang</t>
+  </si>
+  <si>
+    <t>Pyramid</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -376,6 +436,12 @@
     <t>Float</t>
   </si>
   <si>
+    <t>Hotlist</t>
+  </si>
+  <si>
+    <t>Slab</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -394,6 +460,12 @@
     <t>Side</t>
   </si>
   <si>
+    <t>Boucher</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -412,6 +484,12 @@
     <t>Gaze</t>
   </si>
   <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Unary</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -430,6 +508,12 @@
     <t>Miss</t>
   </si>
   <si>
+    <t>Roam</t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -448,6 +532,12 @@
     <t>Facility</t>
   </si>
   <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -466,6 +556,12 @@
     <t>Break</t>
   </si>
   <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -484,6 +580,12 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -502,6 +604,12 @@
     <t>Pace</t>
   </si>
   <si>
+    <t>Explore</t>
+  </si>
+  <si>
+    <t>Torus</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -520,6 +628,12 @@
     <t>Extract</t>
   </si>
   <si>
+    <t>Caravan</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -538,6 +652,12 @@
     <t>Occur</t>
   </si>
   <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -556,6 +676,12 @@
     <t>Fast</t>
   </si>
   <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -577,6 +703,12 @@
     <t>Smart</t>
   </si>
   <si>
+    <t>Moment</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -595,6 +727,12 @@
     <t>Drop</t>
   </si>
   <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -613,6 +751,12 @@
     <t>Show</t>
   </si>
   <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -631,6 +775,12 @@
     <t>Beauty</t>
   </si>
   <si>
+    <t>Booklet</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -647,6 +797,12 @@
   </si>
   <si>
     <t>Rest</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1254,8 +1410,12 @@
       <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1300,8 +1460,12 @@
       <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1326,28 +1490,32 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1372,28 +1540,32 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1418,28 +1590,32 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1464,28 +1640,32 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1510,28 +1690,32 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1556,28 +1740,32 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1602,28 +1790,32 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1648,28 +1840,32 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1694,28 +1890,32 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1740,28 +1940,32 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1786,28 +1990,32 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1832,28 +2040,32 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1878,28 +2090,32 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1924,28 +2140,32 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1970,28 +2190,32 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2016,28 +2240,32 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2062,28 +2290,32 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2108,28 +2340,32 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2154,28 +2390,32 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2200,28 +2440,32 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2246,28 +2490,32 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2292,28 +2540,32 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2338,28 +2590,32 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2384,28 +2640,32 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2430,28 +2690,32 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2476,28 +2740,32 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+        <v>266</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="293">
   <si>
     <t>a.</t>
   </si>
@@ -202,6 +202,9 @@
     <t>Program</t>
   </si>
   <si>
+    <t>Wear</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t>Read</t>
   </si>
   <si>
+    <t>Birth</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -250,6 +256,9 @@
     <t>Thing</t>
   </si>
   <si>
+    <t>Child</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -298,6 +310,9 @@
     <t>Previous</t>
   </si>
   <si>
+    <t>Guardian</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -322,6 +337,9 @@
     <t>Cube</t>
   </si>
   <si>
+    <t>Lord</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -346,6 +364,9 @@
     <t>Cone</t>
   </si>
   <si>
+    <t>Festival</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -370,6 +391,9 @@
     <t>Prism</t>
   </si>
   <si>
+    <t>Repository</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -394,6 +418,9 @@
     <t>Helix</t>
   </si>
   <si>
+    <t>Plan</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -418,6 +445,9 @@
     <t>Pyramid</t>
   </si>
   <si>
+    <t>Vigilance</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -442,6 +472,9 @@
     <t>Slab</t>
   </si>
   <si>
+    <t>Work</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -466,6 +499,9 @@
     <t>Block</t>
   </si>
   <si>
+    <t>Cabin</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -490,6 +526,9 @@
     <t>Unary</t>
   </si>
   <si>
+    <t>Loan</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -514,6 +553,9 @@
     <t>Tertiary</t>
   </si>
   <si>
+    <t>Camp</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -538,6 +580,9 @@
     <t>Binary</t>
   </si>
   <si>
+    <t>Reserve</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -562,6 +607,9 @@
     <t>Hexagon</t>
   </si>
   <si>
+    <t>Part</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -586,6 +634,9 @@
     <t>Polygon</t>
   </si>
   <si>
+    <t>Cause</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -610,6 +661,9 @@
     <t>Torus</t>
   </si>
   <si>
+    <t>Strategy</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -634,6 +688,9 @@
     <t>Box</t>
   </si>
   <si>
+    <t>Fortune</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -658,6 +715,9 @@
     <t>Cylinder</t>
   </si>
   <si>
+    <t>Carnival</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -682,6 +742,9 @@
     <t>Sphere</t>
   </si>
   <si>
+    <t>Asset</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -709,6 +772,9 @@
     <t>Next</t>
   </si>
   <si>
+    <t>Virtue</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -733,6 +799,9 @@
     <t>Reason</t>
   </si>
   <si>
+    <t>God</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -757,6 +826,9 @@
     <t>Buzz</t>
   </si>
   <si>
+    <t>Death</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -781,6 +853,9 @@
     <t>Write</t>
   </si>
   <si>
+    <t>Lock</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -803,6 +878,9 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Augment</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1416,7 +1494,9 @@
       <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1466,7 +1546,9 @@
       <c r="J5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1490,33 +1572,35 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1540,33 +1624,35 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1590,33 +1676,35 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1640,33 +1728,35 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1690,33 +1780,35 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1740,33 +1832,35 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1790,33 +1884,35 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1840,33 +1936,35 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1890,33 +1988,35 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1940,33 +2040,35 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1990,33 +2092,35 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2040,33 +2144,35 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2090,33 +2196,35 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2140,33 +2248,35 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2190,33 +2300,35 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2240,33 +2352,35 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2290,33 +2404,35 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2340,33 +2456,35 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2390,33 +2508,35 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2440,33 +2560,35 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2490,33 +2612,35 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2540,33 +2664,35 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -2590,33 +2716,35 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2640,33 +2768,35 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2690,33 +2820,35 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K30" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2740,33 +2872,35 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="K31" s="17"/>
+        <v>292</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>292</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="319">
   <si>
     <t>a.</t>
   </si>
@@ -205,6 +205,9 @@
     <t>Wear</t>
   </si>
   <si>
+    <t>Subject</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>Birth</t>
   </si>
   <si>
+    <t>Produce</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -259,6 +265,9 @@
     <t>Child</t>
   </si>
   <si>
+    <t>Fundamental</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -286,6 +295,9 @@
     <t>Parent</t>
   </si>
   <si>
+    <t>According</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -313,6 +325,9 @@
     <t>Guardian</t>
   </si>
   <si>
+    <t>Concept</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -340,6 +355,9 @@
     <t>Lord</t>
   </si>
   <si>
+    <t>Incur</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -367,6 +385,9 @@
     <t>Festival</t>
   </si>
   <si>
+    <t>Kind</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -394,6 +415,9 @@
     <t>Repository</t>
   </si>
   <si>
+    <t>Initiate</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -421,6 +445,9 @@
     <t>Plan</t>
   </si>
   <si>
+    <t>Resort</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -448,6 +475,9 @@
     <t>Vigilance</t>
   </si>
   <si>
+    <t>Passion</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -475,6 +505,9 @@
     <t>Work</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -502,6 +535,9 @@
     <t>Cabin</t>
   </si>
   <si>
+    <t>Directive</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -529,6 +565,9 @@
     <t>Loan</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -556,6 +595,9 @@
     <t>Camp</t>
   </si>
   <si>
+    <t>Placard</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -583,6 +625,9 @@
     <t>Reserve</t>
   </si>
   <si>
+    <t>Swift</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -610,6 +655,9 @@
     <t>Part</t>
   </si>
   <si>
+    <t>Lead</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -637,6 +685,9 @@
     <t>Cause</t>
   </si>
   <si>
+    <t>Practical</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -664,6 +715,9 @@
     <t>Strategy</t>
   </si>
   <si>
+    <t>Roll</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -691,6 +745,9 @@
     <t>Fortune</t>
   </si>
   <si>
+    <t>Symphony</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -718,6 +775,9 @@
     <t>Carnival</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -745,6 +805,9 @@
     <t>Asset</t>
   </si>
   <si>
+    <t>Literal</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -775,6 +838,9 @@
     <t>Virtue</t>
   </si>
   <si>
+    <t>Witness</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -802,6 +868,9 @@
     <t>God</t>
   </si>
   <si>
+    <t>Convergence</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -829,6 +898,9 @@
     <t>Death</t>
   </si>
   <si>
+    <t>Basic</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -856,6 +928,9 @@
     <t>Lock</t>
   </si>
   <si>
+    <t>Sharp</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -881,6 +956,9 @@
   </si>
   <si>
     <t>Augment</t>
+  </si>
+  <si>
+    <t>Fame</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1497,7 +1575,9 @@
       <c r="K4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1549,7 +1629,9 @@
       <c r="K5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1572,36 +1654,38 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1624,36 +1708,38 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1676,36 +1762,38 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1728,36 +1816,38 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1780,36 +1870,38 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1832,36 +1924,38 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1884,36 +1978,38 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1936,36 +2032,38 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1988,36 +2086,38 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2040,36 +2140,38 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2092,36 +2194,38 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2144,36 +2248,38 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2196,36 +2302,38 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2248,36 +2356,38 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2300,36 +2410,38 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2352,36 +2464,38 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2404,36 +2518,38 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2456,36 +2572,38 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2508,36 +2626,38 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2560,36 +2680,38 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2612,36 +2734,38 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="L26" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2664,36 +2788,38 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L27" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2716,36 +2842,38 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L28" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2768,36 +2896,38 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="L29" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2820,36 +2950,38 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="L30" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2872,36 +3004,38 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="L31" s="17"/>
+        <v>318</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>318</v>
+      </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="345">
   <si>
     <t>a.</t>
   </si>
@@ -208,6 +208,9 @@
     <t>Subject</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t>Produce</t>
   </si>
   <si>
+    <t>Fine</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
     <t>Fundamental</t>
   </si>
   <si>
+    <t>Sheet</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -298,6 +307,9 @@
     <t>According</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -328,6 +340,9 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>Goal</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -358,6 +373,9 @@
     <t>Incur</t>
   </si>
   <si>
+    <t>Aim</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -388,6 +406,9 @@
     <t>Kind</t>
   </si>
   <si>
+    <t>Phase</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -418,6 +439,9 @@
     <t>Initiate</t>
   </si>
   <si>
+    <t>Focus</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -448,6 +472,9 @@
     <t>Resort</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -478,6 +505,9 @@
     <t>Passion</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -508,6 +538,9 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>Label</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -538,6 +571,9 @@
     <t>Directive</t>
   </si>
   <si>
+    <t>Blank</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -568,6 +604,9 @@
     <t>New</t>
   </si>
   <si>
+    <t>Boost</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -598,6 +637,9 @@
     <t>Placard</t>
   </si>
   <si>
+    <t>Base</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -628,6 +670,9 @@
     <t>Swift</t>
   </si>
   <si>
+    <t>Lap</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -658,6 +703,9 @@
     <t>Lead</t>
   </si>
   <si>
+    <t>Layer</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -688,6 +736,9 @@
     <t>Practical</t>
   </si>
   <si>
+    <t>Disk</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -718,6 +769,9 @@
     <t>Roll</t>
   </si>
   <si>
+    <t>Trump</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -748,6 +802,9 @@
     <t>Symphony</t>
   </si>
   <si>
+    <t>Daemon</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -778,6 +835,9 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Load</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -808,6 +868,9 @@
     <t>Literal</t>
   </si>
   <si>
+    <t>Frequency</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -841,6 +904,9 @@
     <t>Witness</t>
   </si>
   <si>
+    <t>Permanent</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -871,6 +937,9 @@
     <t>Convergence</t>
   </si>
   <si>
+    <t>Ready</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -901,6 +970,9 @@
     <t>Basic</t>
   </si>
   <si>
+    <t>Full</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -931,6 +1003,9 @@
     <t>Sharp</t>
   </si>
   <si>
+    <t>Bracket</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -959,6 +1034,9 @@
   </si>
   <si>
     <t>Fame</t>
+  </si>
+  <si>
+    <t>Illustrate</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1578,7 +1656,9 @@
       <c r="L4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1632,7 +1712,9 @@
       <c r="L5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1654,39 +1736,41 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1708,39 +1792,41 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1762,39 +1848,41 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1816,39 +1904,41 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1870,39 +1960,41 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1924,39 +2016,41 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1978,39 +2072,41 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2032,39 +2128,41 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2086,39 +2184,41 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2140,39 +2240,41 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2194,39 +2296,41 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2248,39 +2352,41 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2302,39 +2408,41 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2356,39 +2464,41 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2410,39 +2520,41 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2464,39 +2576,41 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2518,39 +2632,41 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2572,39 +2688,41 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2626,39 +2744,41 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2680,39 +2800,41 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2734,39 +2856,41 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2788,39 +2912,41 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M27" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2842,39 +2968,41 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2896,39 +3024,41 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2950,39 +3080,41 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3004,39 +3136,41 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="M31" s="17"/>
+        <v>344</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>344</v>
+      </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="371">
   <si>
     <t>a.</t>
   </si>
@@ -211,6 +211,9 @@
     <t>Event</t>
   </si>
   <si>
+    <t>Party</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>Fine</t>
   </si>
   <si>
+    <t>Matter</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>Sheet</t>
   </si>
   <si>
+    <t>Bond</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -310,6 +319,9 @@
     <t>Master</t>
   </si>
   <si>
+    <t>Chain</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -343,6 +355,9 @@
     <t>Goal</t>
   </si>
   <si>
+    <t>Case</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -376,6 +391,9 @@
     <t>Aim</t>
   </si>
   <si>
+    <t>Extend</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -409,6 +427,9 @@
     <t>Phase</t>
   </si>
   <si>
+    <t>Set</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -442,6 +463,9 @@
     <t>Focus</t>
   </si>
   <si>
+    <t>Fact</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -475,6 +499,9 @@
     <t>Test</t>
   </si>
   <si>
+    <t>Tribute</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -508,6 +535,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -541,6 +571,9 @@
     <t>Label</t>
   </si>
   <si>
+    <t>Mirror</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -574,6 +607,9 @@
     <t>Blank</t>
   </si>
   <si>
+    <t>Copy</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -607,6 +643,9 @@
     <t>Boost</t>
   </si>
   <si>
+    <t>Hash</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -640,6 +679,9 @@
     <t>Base</t>
   </si>
   <si>
+    <t>Acute</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -673,6 +715,9 @@
     <t>Lap</t>
   </si>
   <si>
+    <t>Cross</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -706,6 +751,9 @@
     <t>Layer</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -739,6 +787,9 @@
     <t>Disk</t>
   </si>
   <si>
+    <t>Complex</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -772,6 +823,9 @@
     <t>Trump</t>
   </si>
   <si>
+    <t>Balance</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -805,6 +859,9 @@
     <t>Daemon</t>
   </si>
   <si>
+    <t>Care</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -838,6 +895,9 @@
     <t>Load</t>
   </si>
   <si>
+    <t>Semi</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -871,6 +931,9 @@
     <t>Frequency</t>
   </si>
   <si>
+    <t>Help</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -907,6 +970,9 @@
     <t>Permanent</t>
   </si>
   <si>
+    <t>Deck</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -940,6 +1006,9 @@
     <t>Ready</t>
   </si>
   <si>
+    <t>Bend</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -973,6 +1042,9 @@
     <t>Full</t>
   </si>
   <si>
+    <t>Ascend</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -1006,6 +1078,9 @@
     <t>Bracket</t>
   </si>
   <si>
+    <t>Attract</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -1037,6 +1112,9 @@
   </si>
   <si>
     <t>Illustrate</t>
+  </si>
+  <si>
+    <t>Press</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1659,7 +1737,9 @@
       <c r="M4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1715,7 +1795,9 @@
       <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1736,42 +1818,44 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1792,42 +1876,44 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1848,42 +1934,44 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1904,42 +1992,44 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1960,42 +2050,44 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2016,42 +2108,44 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -2072,42 +2166,44 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2128,42 +2224,44 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N13" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2184,42 +2282,44 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2240,42 +2340,44 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N15" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -2296,42 +2398,44 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2352,42 +2456,44 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2408,42 +2514,44 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2464,42 +2572,44 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2520,42 +2630,44 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N20" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2576,42 +2688,44 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="N21" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2632,42 +2746,44 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="N22" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2688,42 +2804,44 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="N23" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2744,42 +2862,44 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="N24" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2800,42 +2920,44 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="N25" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2856,42 +2978,44 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N26" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2912,42 +3036,44 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N27" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2968,42 +3094,44 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="N28" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3024,42 +3152,44 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="N29" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -3080,42 +3210,44 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N30" s="3"/>
+        <v>366</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3136,42 +3268,44 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="N31" s="17"/>
+        <v>370</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>370</v>
+      </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>

--- a/moreHeadlines53/moreHeadlines53.xlsx
+++ b/moreHeadlines53/moreHeadlines53.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="423">
   <si>
     <t>a.</t>
   </si>
@@ -214,6 +214,12 @@
     <t>Party</t>
   </si>
   <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Sepia</t>
+  </si>
+  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -250,6 +256,12 @@
     <t>Matter</t>
   </si>
   <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
@@ -286,6 +298,12 @@
     <t>Bond</t>
   </si>
   <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Radiant</t>
+  </si>
+  <si>
     <t>(4)</t>
   </si>
   <si>
@@ -322,6 +340,12 @@
     <t>Chain</t>
   </si>
   <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
     <t>(5)</t>
   </si>
   <si>
@@ -358,6 +382,12 @@
     <t>Case</t>
   </si>
   <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Smudge</t>
+  </si>
+  <si>
     <t>(6)</t>
   </si>
   <si>
@@ -394,6 +424,12 @@
     <t>Extend</t>
   </si>
   <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Burnish</t>
+  </si>
+  <si>
     <t>(7)</t>
   </si>
   <si>
@@ -430,6 +466,12 @@
     <t>Set</t>
   </si>
   <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Monolith</t>
+  </si>
+  <si>
     <t>(8)</t>
   </si>
   <si>
@@ -466,6 +508,12 @@
     <t>Fact</t>
   </si>
   <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Floral</t>
+  </si>
+  <si>
     <t>(9)</t>
   </si>
   <si>
@@ -502,6 +550,12 @@
     <t>Tribute</t>
   </si>
   <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Sparkle</t>
+  </si>
+  <si>
     <t>(10)</t>
   </si>
   <si>
@@ -538,6 +592,12 @@
     <t>Period</t>
   </si>
   <si>
+    <t>Delivering</t>
+  </si>
+  <si>
+    <t>Sketch</t>
+  </si>
+  <si>
     <t>(11)</t>
   </si>
   <si>
@@ -574,6 +634,12 @@
     <t>Mirror</t>
   </si>
   <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
     <t>(12)</t>
   </si>
   <si>
@@ -610,6 +676,12 @@
     <t>Copy</t>
   </si>
   <si>
+    <t>Ecosystem</t>
+  </si>
+  <si>
+    <t>Atomic</t>
+  </si>
+  <si>
     <t>(13)</t>
   </si>
   <si>
@@ -646,6 +718,12 @@
     <t>Hash</t>
   </si>
   <si>
+    <t>Sharing</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
     <t>(14)</t>
   </si>
   <si>
@@ -682,6 +760,12 @@
     <t>Acute</t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
     <t>(15)</t>
   </si>
   <si>
@@ -718,6 +802,12 @@
     <t>Cross</t>
   </si>
   <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
     <t>(16)</t>
   </si>
   <si>
@@ -754,6 +844,12 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Orthodox</t>
+  </si>
+  <si>
     <t>(17)</t>
   </si>
   <si>
@@ -790,6 +886,12 @@
     <t>Complex</t>
   </si>
   <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+  <si>
     <t>(18)</t>
   </si>
   <si>
@@ -826,6 +928,12 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Enhance</t>
+  </si>
+  <si>
     <t>(19)</t>
   </si>
   <si>
@@ -862,6 +970,12 @@
     <t>Care</t>
   </si>
   <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
     <t>(20)</t>
   </si>
   <si>
@@ -898,6 +1012,12 @@
     <t>Semi</t>
   </si>
   <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Emboss</t>
+  </si>
+  <si>
     <t>(21)</t>
   </si>
   <si>
@@ -934,6 +1054,12 @@
     <t>Help</t>
   </si>
   <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Fluorescent</t>
+  </si>
+  <si>
     <t>(22)</t>
   </si>
   <si>
@@ -973,6 +1099,12 @@
     <t>Deck</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
     <t>(23)</t>
   </si>
   <si>
@@ -1009,6 +1141,12 @@
     <t>Bend</t>
   </si>
   <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Vivid</t>
+  </si>
+  <si>
     <t>(24)</t>
   </si>
   <si>
@@ -1045,6 +1183,12 @@
     <t>Ascend</t>
   </si>
   <si>
+    <t>Empower</t>
+  </si>
+  <si>
+    <t>Greyscale</t>
+  </si>
+  <si>
     <t>(25)</t>
   </si>
   <si>
@@ -1081,6 +1225,12 @@
     <t>Attract</t>
   </si>
   <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
     <t>(26)</t>
   </si>
   <si>
@@ -1115,6 +1265,12 @@
   </si>
   <si>
     <t>Press</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Punch</t>
   </si>
   <si>
     <t>(::.)</t>
@@ -1495,7 +1651,7 @@
     <col customWidth="1" min="1" max="1" width="2.75"/>
     <col customWidth="1" min="2" max="2" width="5.5"/>
     <col customWidth="1" min="3" max="3" width="2.88"/>
-    <col customWidth="1" min="4" max="29" width="12.75"/>
+    <col customWidth="1" min="4" max="29" width="13.63"/>
     <col customWidth="1" min="30" max="30" width="2.75"/>
   </cols>
   <sheetData>
@@ -1740,8 +1896,12 @@
       <c r="N4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1798,8 +1958,12 @@
       <c r="N5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1818,46 +1982,50 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1876,46 +2044,50 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1934,46 +2106,50 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1992,46 +2168,50 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2050,46 +2230,50 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2108,46 +2292,50 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2166,46 +2354,50 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2224,46 +2416,50 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2282,46 +2478,50 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2340,46 +2540,50 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2398,46 +2602,50 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2456,46 +2664,50 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>234</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2514,46 +2726,50 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2572,46 +2788,50 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2630,46 +2850,50 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2688,46 +2912,50 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2746,46 +2974,50 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2804,46 +3036,50 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -2862,46 +3098,50 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -2920,46 +3160,50 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2978,46 +3222,50 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+        <v>361</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3036,46 +3284,50 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+        <v>375</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3094,46 +3346,50 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+        <v>389</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3152,46 +3408,50 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3210,46 +3470,50 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+        <v>417</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3268,46 +3532,50 @@
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+        <v>422</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>422</v>
+      </c>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
